--- a/medicine/中药数据/TCMSP/三七/三七.xlsx
+++ b/medicine/中药数据/TCMSP/三七/三七.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20325"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\project\reptilian\medicine\中药数据\TCMSP\三七\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{6B3C525C-1581-4CED-8705-D96F16CDF4C7}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="三七" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -1093,12 +1099,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1106,20 +1112,48 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -1142,26 +1176,153 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1203,7 +1364,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1235,9 +1396,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1269,6 +1448,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1444,1694 +1641,1703 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D120"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="D2" sqref="A2:D120"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="255.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="41.625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="1">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A1" s="3">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="6" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="1">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A2" s="4">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="8" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="10" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A4" s="2">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="12" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="10" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="1">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A6" s="2">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="12" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="10" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="1">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A8" s="2">
         <v>7</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="12" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A9" s="1">
         <v>8</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="10" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="1">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A10" s="2">
         <v>9</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="11" t="s">
         <v>129</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="12" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A11" s="1">
         <v>10</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="10" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="1">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A12" s="2">
         <v>11</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="12" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A13" s="1">
         <v>12</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" s="10" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="1">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A14" s="2">
         <v>13</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="11" t="s">
         <v>133</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" s="12" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A15" s="1">
         <v>14</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="9" t="s">
         <v>134</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" s="10" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="1">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A16" s="2">
         <v>15</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="11" t="s">
         <v>135</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D16" s="12" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A17" s="1">
         <v>16</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="9" t="s">
         <v>136</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D17" s="10" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="1">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A18" s="2">
         <v>17</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="11" t="s">
         <v>137</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D18" s="12" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A19" s="1">
         <v>18</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" s="9" t="s">
         <v>138</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D19" s="10" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="1">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A20" s="2">
         <v>19</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" s="11" t="s">
         <v>139</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D20" s="12" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A21" s="1">
         <v>20</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D21" s="10" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
-      <c r="A22" s="1">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A22" s="2">
         <v>21</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C22" s="11" t="s">
         <v>141</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D22" s="12" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A23" s="1">
         <v>22</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C23" s="9" t="s">
         <v>142</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D23" s="10" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
-      <c r="A24" s="1">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A24" s="2">
         <v>23</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C24" s="11" t="s">
         <v>143</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D24" s="12" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A25" s="1">
         <v>24</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C25" s="9" t="s">
         <v>144</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D25" s="10" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
-      <c r="A26" s="1">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A26" s="2">
         <v>25</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C26" s="11" t="s">
         <v>145</v>
       </c>
-      <c r="D26" t="s">
+      <c r="D26" s="12" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A27" s="1">
         <v>26</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C27" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="D27" t="s">
+      <c r="D27" s="10" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
-      <c r="A28" s="1">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A28" s="2">
         <v>27</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C28" s="11" t="s">
         <v>147</v>
       </c>
-      <c r="D28" t="s">
+      <c r="D28" s="12" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A29" s="1">
         <v>28</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C29" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="D29" t="s">
+      <c r="D29" s="10" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
-      <c r="A30" s="1">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A30" s="2">
         <v>29</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C30" s="11" t="s">
         <v>149</v>
       </c>
-      <c r="D30" t="s">
+      <c r="D30" s="12" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A31" s="1">
         <v>30</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C31" s="9" t="s">
         <v>150</v>
       </c>
-      <c r="D31" t="s">
+      <c r="D31" s="10" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
-      <c r="A32" s="1">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A32" s="2">
         <v>31</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C32" s="11" t="s">
         <v>151</v>
       </c>
-      <c r="D32" t="s">
+      <c r="D32" s="12" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A33" s="1">
         <v>32</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C33" s="9" t="s">
         <v>152</v>
       </c>
-      <c r="D33" t="s">
+      <c r="D33" s="10" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
-      <c r="A34" s="1">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A34" s="2">
         <v>33</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B34" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C34" s="11" t="s">
         <v>153</v>
       </c>
-      <c r="D34" t="s">
+      <c r="D34" s="12" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A35" s="1">
         <v>34</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B35" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C35" s="9" t="s">
         <v>154</v>
       </c>
-      <c r="D35" t="s">
+      <c r="D35" s="10" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
-      <c r="A36" s="1">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A36" s="2">
         <v>35</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B36" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C36" s="11" t="s">
         <v>155</v>
       </c>
-      <c r="D36" t="s">
+      <c r="D36" s="12" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A37" s="1">
         <v>36</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B37" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C37" s="9" t="s">
         <v>156</v>
       </c>
-      <c r="D37" t="s">
+      <c r="D37" s="10" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="38" spans="1:4">
-      <c r="A38" s="1">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A38" s="2">
         <v>37</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B38" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C38" s="11" t="s">
         <v>157</v>
       </c>
-      <c r="D38" t="s">
+      <c r="D38" s="12" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A39" s="1">
         <v>38</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B39" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="C39" t="s">
+      <c r="C39" s="9" t="s">
         <v>158</v>
       </c>
-      <c r="D39" t="s">
+      <c r="D39" s="10" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="40" spans="1:4">
-      <c r="A40" s="1">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A40" s="2">
         <v>39</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B40" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C40" s="11" t="s">
         <v>159</v>
       </c>
-      <c r="D40" t="s">
+      <c r="D40" s="12" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="41" spans="1:4">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A41" s="1">
         <v>40</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B41" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="C41" t="s">
+      <c r="C41" s="9" t="s">
         <v>160</v>
       </c>
-      <c r="D41" t="s">
+      <c r="D41" s="10" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="42" spans="1:4">
-      <c r="A42" s="1">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A42" s="2">
         <v>41</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B42" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="C42" t="s">
+      <c r="C42" s="11" t="s">
         <v>161</v>
       </c>
-      <c r="D42" t="s">
+      <c r="D42" s="12" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="43" spans="1:4">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A43" s="1">
         <v>42</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B43" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="C43" t="s">
+      <c r="C43" s="9" t="s">
         <v>162</v>
       </c>
-      <c r="D43" t="s">
+      <c r="D43" s="10" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="44" spans="1:4">
-      <c r="A44" s="1">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A44" s="2">
         <v>43</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B44" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="C44" t="s">
+      <c r="C44" s="11" t="s">
         <v>163</v>
       </c>
-      <c r="D44" t="s">
+      <c r="D44" s="12" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="45" spans="1:4">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A45" s="1">
         <v>44</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B45" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="C45" t="s">
+      <c r="C45" s="9" t="s">
         <v>164</v>
       </c>
-      <c r="D45" t="s">
+      <c r="D45" s="10" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="46" spans="1:4">
-      <c r="A46" s="1">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A46" s="2">
         <v>45</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B46" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="C46" t="s">
+      <c r="C46" s="11" t="s">
         <v>165</v>
       </c>
-      <c r="D46" t="s">
+      <c r="D46" s="12" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="47" spans="1:4">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A47" s="1">
         <v>46</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B47" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="C47" t="s">
+      <c r="C47" s="9" t="s">
         <v>166</v>
       </c>
-      <c r="D47" t="s">
+      <c r="D47" s="10" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="48" spans="1:4">
-      <c r="A48" s="1">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A48" s="2">
         <v>47</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B48" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="C48" t="s">
+      <c r="C48" s="11" t="s">
         <v>167</v>
       </c>
-      <c r="D48" t="s">
+      <c r="D48" s="12" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="49" spans="1:4">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A49" s="1">
         <v>48</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B49" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="C49" t="s">
+      <c r="C49" s="9" t="s">
         <v>168</v>
       </c>
-      <c r="D49" t="s">
+      <c r="D49" s="10" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="50" spans="1:4">
-      <c r="A50" s="1">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A50" s="2">
         <v>49</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B50" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="C50" t="s">
+      <c r="C50" s="11" t="s">
         <v>169</v>
       </c>
-      <c r="D50" t="s">
+      <c r="D50" s="12" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="51" spans="1:4">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A51" s="1">
         <v>50</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B51" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="C51" t="s">
+      <c r="C51" s="9" t="s">
         <v>170</v>
       </c>
-      <c r="D51" t="s">
+      <c r="D51" s="10" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="52" spans="1:4">
-      <c r="A52" s="1">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A52" s="2">
         <v>51</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B52" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="C52" t="s">
+      <c r="C52" s="11" t="s">
         <v>171</v>
       </c>
-      <c r="D52" t="s">
+      <c r="D52" s="12" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="53" spans="1:4">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A53" s="1">
         <v>52</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B53" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="C53" t="s">
+      <c r="C53" s="9" t="s">
         <v>172</v>
       </c>
-      <c r="D53" t="s">
+      <c r="D53" s="10" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="54" spans="1:4">
-      <c r="A54" s="1">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A54" s="2">
         <v>53</v>
       </c>
-      <c r="B54" t="s">
+      <c r="B54" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="C54" t="s">
+      <c r="C54" s="11" t="s">
         <v>173</v>
       </c>
-      <c r="D54" t="s">
+      <c r="D54" s="12" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="55" spans="1:4">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A55" s="1">
         <v>54</v>
       </c>
-      <c r="B55" t="s">
+      <c r="B55" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="C55" t="s">
+      <c r="C55" s="9" t="s">
         <v>174</v>
       </c>
-      <c r="D55" t="s">
+      <c r="D55" s="10" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="56" spans="1:4">
-      <c r="A56" s="1">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A56" s="2">
         <v>55</v>
       </c>
-      <c r="B56" t="s">
+      <c r="B56" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="C56" t="s">
+      <c r="C56" s="11" t="s">
         <v>175</v>
       </c>
-      <c r="D56" t="s">
+      <c r="D56" s="12" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="57" spans="1:4">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A57" s="1">
         <v>56</v>
       </c>
-      <c r="B57" t="s">
+      <c r="B57" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="C57" t="s">
+      <c r="C57" s="9" t="s">
         <v>176</v>
       </c>
-      <c r="D57" t="s">
+      <c r="D57" s="10" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="58" spans="1:4">
-      <c r="A58" s="1">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A58" s="2">
         <v>57</v>
       </c>
-      <c r="B58" t="s">
+      <c r="B58" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="C58" t="s">
+      <c r="C58" s="11" t="s">
         <v>177</v>
       </c>
-      <c r="D58" t="s">
+      <c r="D58" s="12" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="59" spans="1:4">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A59" s="1">
         <v>58</v>
       </c>
-      <c r="B59" t="s">
+      <c r="B59" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="C59" t="s">
+      <c r="C59" s="9" t="s">
         <v>178</v>
       </c>
-      <c r="D59" t="s">
+      <c r="D59" s="10" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="60" spans="1:4">
-      <c r="A60" s="1">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A60" s="2">
         <v>59</v>
       </c>
-      <c r="B60" t="s">
+      <c r="B60" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="C60" t="s">
+      <c r="C60" s="11" t="s">
         <v>179</v>
       </c>
-      <c r="D60" t="s">
+      <c r="D60" s="12" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="61" spans="1:4">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A61" s="1">
         <v>60</v>
       </c>
-      <c r="B61" t="s">
+      <c r="B61" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="C61" t="s">
+      <c r="C61" s="9" t="s">
         <v>180</v>
       </c>
-      <c r="D61" t="s">
+      <c r="D61" s="10" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="62" spans="1:4">
-      <c r="A62" s="1">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A62" s="2">
         <v>61</v>
       </c>
-      <c r="B62" t="s">
+      <c r="B62" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="C62" t="s">
+      <c r="C62" s="11" t="s">
         <v>181</v>
       </c>
-      <c r="D62" t="s">
+      <c r="D62" s="12" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="63" spans="1:4">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A63" s="1">
         <v>62</v>
       </c>
-      <c r="B63" t="s">
+      <c r="B63" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="C63" t="s">
+      <c r="C63" s="9" t="s">
         <v>182</v>
       </c>
-      <c r="D63" t="s">
+      <c r="D63" s="10" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="64" spans="1:4">
-      <c r="A64" s="1">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A64" s="2">
         <v>63</v>
       </c>
-      <c r="B64" t="s">
+      <c r="B64" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="C64" t="s">
+      <c r="C64" s="11" t="s">
         <v>183</v>
       </c>
-      <c r="D64" t="s">
+      <c r="D64" s="12" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="65" spans="1:4">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A65" s="1">
         <v>64</v>
       </c>
-      <c r="B65" t="s">
+      <c r="B65" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="C65" t="s">
+      <c r="C65" s="9" t="s">
         <v>184</v>
       </c>
-      <c r="D65" t="s">
+      <c r="D65" s="10" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="66" spans="1:4">
-      <c r="A66" s="1">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A66" s="2">
         <v>65</v>
       </c>
-      <c r="B66" t="s">
+      <c r="B66" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="C66" t="s">
+      <c r="C66" s="11" t="s">
         <v>185</v>
       </c>
-      <c r="D66" t="s">
+      <c r="D66" s="12" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="67" spans="1:4">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A67" s="1">
         <v>66</v>
       </c>
-      <c r="B67" t="s">
+      <c r="B67" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="C67" t="s">
+      <c r="C67" s="9" t="s">
         <v>186</v>
       </c>
-      <c r="D67" t="s">
+      <c r="D67" s="10" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="68" spans="1:4">
-      <c r="A68" s="1">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A68" s="2">
         <v>67</v>
       </c>
-      <c r="B68" t="s">
+      <c r="B68" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="C68" t="s">
+      <c r="C68" s="11" t="s">
         <v>187</v>
       </c>
-      <c r="D68" t="s">
+      <c r="D68" s="12" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="69" spans="1:4">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A69" s="1">
         <v>68</v>
       </c>
-      <c r="B69" t="s">
+      <c r="B69" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="C69" t="s">
+      <c r="C69" s="9" t="s">
         <v>188</v>
       </c>
-      <c r="D69" t="s">
+      <c r="D69" s="10" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="70" spans="1:4">
-      <c r="A70" s="1">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A70" s="2">
         <v>69</v>
       </c>
-      <c r="B70" t="s">
+      <c r="B70" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="C70" t="s">
+      <c r="C70" s="11" t="s">
         <v>189</v>
       </c>
-      <c r="D70" t="s">
+      <c r="D70" s="12" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="71" spans="1:4">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A71" s="1">
         <v>70</v>
       </c>
-      <c r="B71" t="s">
+      <c r="B71" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="C71" t="s">
+      <c r="C71" s="9" t="s">
         <v>190</v>
       </c>
-      <c r="D71" t="s">
+      <c r="D71" s="10" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="72" spans="1:4">
-      <c r="A72" s="1">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A72" s="2">
         <v>71</v>
       </c>
-      <c r="B72" t="s">
+      <c r="B72" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="C72" t="s">
+      <c r="C72" s="11" t="s">
         <v>191</v>
       </c>
-      <c r="D72" t="s">
+      <c r="D72" s="12" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="73" spans="1:4">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A73" s="1">
         <v>72</v>
       </c>
-      <c r="B73" t="s">
+      <c r="B73" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="C73" t="s">
+      <c r="C73" s="9" t="s">
         <v>192</v>
       </c>
-      <c r="D73" t="s">
+      <c r="D73" s="10" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="74" spans="1:4">
-      <c r="A74" s="1">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A74" s="2">
         <v>73</v>
       </c>
-      <c r="B74" t="s">
+      <c r="B74" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="C74" t="s">
+      <c r="C74" s="11" t="s">
         <v>193</v>
       </c>
-      <c r="D74" t="s">
+      <c r="D74" s="12" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="75" spans="1:4">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A75" s="1">
         <v>74</v>
       </c>
-      <c r="B75" t="s">
+      <c r="B75" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="C75" t="s">
+      <c r="C75" s="9" t="s">
         <v>194</v>
       </c>
-      <c r="D75" t="s">
+      <c r="D75" s="10" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="76" spans="1:4">
-      <c r="A76" s="1">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A76" s="2">
         <v>75</v>
       </c>
-      <c r="B76" t="s">
+      <c r="B76" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="C76" t="s">
+      <c r="C76" s="11" t="s">
         <v>161</v>
       </c>
-      <c r="D76" t="s">
+      <c r="D76" s="12" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="77" spans="1:4">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A77" s="1">
         <v>76</v>
       </c>
-      <c r="B77" t="s">
+      <c r="B77" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="C77" t="s">
+      <c r="C77" s="9" t="s">
         <v>195</v>
       </c>
-      <c r="D77" t="s">
+      <c r="D77" s="10" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="78" spans="1:4">
-      <c r="A78" s="1">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A78" s="2">
         <v>77</v>
       </c>
-      <c r="B78" t="s">
+      <c r="B78" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="C78" t="s">
+      <c r="C78" s="11" t="s">
         <v>196</v>
       </c>
-      <c r="D78" t="s">
+      <c r="D78" s="12" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="79" spans="1:4">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A79" s="1">
         <v>78</v>
       </c>
-      <c r="B79" t="s">
+      <c r="B79" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="C79" t="s">
+      <c r="C79" s="9" t="s">
         <v>197</v>
       </c>
-      <c r="D79" t="s">
+      <c r="D79" s="10" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="80" spans="1:4">
-      <c r="A80" s="1">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A80" s="2">
         <v>79</v>
       </c>
-      <c r="B80" t="s">
+      <c r="B80" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="C80" t="s">
+      <c r="C80" s="11" t="s">
         <v>198</v>
       </c>
-      <c r="D80" t="s">
+      <c r="D80" s="12" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="81" spans="1:4">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A81" s="1">
         <v>80</v>
       </c>
-      <c r="B81" t="s">
+      <c r="B81" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="C81" t="s">
+      <c r="C81" s="9" t="s">
         <v>199</v>
       </c>
-      <c r="D81" t="s">
+      <c r="D81" s="10" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="82" spans="1:4">
-      <c r="A82" s="1">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A82" s="2">
         <v>81</v>
       </c>
-      <c r="B82" t="s">
+      <c r="B82" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="C82" t="s">
+      <c r="C82" s="11" t="s">
         <v>200</v>
       </c>
-      <c r="D82" t="s">
+      <c r="D82" s="12" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="83" spans="1:4">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A83" s="1">
         <v>82</v>
       </c>
-      <c r="B83" t="s">
+      <c r="B83" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="C83" t="s">
+      <c r="C83" s="9" t="s">
         <v>201</v>
       </c>
-      <c r="D83" t="s">
+      <c r="D83" s="10" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="84" spans="1:4">
-      <c r="A84" s="1">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A84" s="2">
         <v>83</v>
       </c>
-      <c r="B84" t="s">
+      <c r="B84" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="C84" t="s">
+      <c r="C84" s="11" t="s">
         <v>202</v>
       </c>
-      <c r="D84" t="s">
+      <c r="D84" s="12" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="85" spans="1:4">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A85" s="1">
         <v>84</v>
       </c>
-      <c r="B85" t="s">
+      <c r="B85" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="C85" t="s">
+      <c r="C85" s="9" t="s">
         <v>203</v>
       </c>
-      <c r="D85" t="s">
+      <c r="D85" s="10" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="86" spans="1:4">
-      <c r="A86" s="1">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A86" s="2">
         <v>85</v>
       </c>
-      <c r="B86" t="s">
+      <c r="B86" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="C86" t="s">
+      <c r="C86" s="11" t="s">
         <v>204</v>
       </c>
-      <c r="D86" t="s">
+      <c r="D86" s="12" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="87" spans="1:4">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A87" s="1">
         <v>86</v>
       </c>
-      <c r="B87" t="s">
+      <c r="B87" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="C87" t="s">
+      <c r="C87" s="9" t="s">
         <v>205</v>
       </c>
-      <c r="D87" t="s">
+      <c r="D87" s="10" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="88" spans="1:4">
-      <c r="A88" s="1">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A88" s="2">
         <v>87</v>
       </c>
-      <c r="B88" t="s">
+      <c r="B88" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="C88" t="s">
+      <c r="C88" s="11" t="s">
         <v>206</v>
       </c>
-      <c r="D88" t="s">
+      <c r="D88" s="12" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="89" spans="1:4">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A89" s="1">
         <v>88</v>
       </c>
-      <c r="B89" t="s">
+      <c r="B89" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="C89" t="s">
+      <c r="C89" s="9" t="s">
         <v>207</v>
       </c>
-      <c r="D89" t="s">
+      <c r="D89" s="10" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="90" spans="1:4">
-      <c r="A90" s="1">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A90" s="2">
         <v>89</v>
       </c>
-      <c r="B90" t="s">
+      <c r="B90" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="C90" t="s">
+      <c r="C90" s="11" t="s">
         <v>208</v>
       </c>
-      <c r="D90" t="s">
+      <c r="D90" s="12" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="91" spans="1:4">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A91" s="1">
         <v>90</v>
       </c>
-      <c r="B91" t="s">
+      <c r="B91" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="C91" t="s">
+      <c r="C91" s="9" t="s">
         <v>209</v>
       </c>
-      <c r="D91" t="s">
+      <c r="D91" s="10" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="92" spans="1:4">
-      <c r="A92" s="1">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A92" s="2">
         <v>91</v>
       </c>
-      <c r="B92" t="s">
+      <c r="B92" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="C92" t="s">
+      <c r="C92" s="11" t="s">
         <v>210</v>
       </c>
-      <c r="D92" t="s">
+      <c r="D92" s="12" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="93" spans="1:4">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A93" s="1">
         <v>92</v>
       </c>
-      <c r="B93" t="s">
+      <c r="B93" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="C93" t="s">
+      <c r="C93" s="9" t="s">
         <v>211</v>
       </c>
-      <c r="D93" t="s">
+      <c r="D93" s="10" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="94" spans="1:4">
-      <c r="A94" s="1">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A94" s="2">
         <v>93</v>
       </c>
-      <c r="B94" t="s">
+      <c r="B94" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="C94" t="s">
+      <c r="C94" s="11" t="s">
         <v>212</v>
       </c>
-      <c r="D94" t="s">
+      <c r="D94" s="12" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="95" spans="1:4">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A95" s="1">
         <v>94</v>
       </c>
-      <c r="B95" t="s">
+      <c r="B95" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="C95" t="s">
+      <c r="C95" s="9" t="s">
         <v>213</v>
       </c>
-      <c r="D95" t="s">
+      <c r="D95" s="10" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="96" spans="1:4">
-      <c r="A96" s="1">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A96" s="2">
         <v>95</v>
       </c>
-      <c r="B96" t="s">
+      <c r="B96" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="C96" t="s">
+      <c r="C96" s="11" t="s">
         <v>214</v>
       </c>
-      <c r="D96" t="s">
+      <c r="D96" s="12" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="97" spans="1:4">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A97" s="1">
         <v>96</v>
       </c>
-      <c r="B97" t="s">
+      <c r="B97" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="C97" t="s">
+      <c r="C97" s="9" t="s">
         <v>215</v>
       </c>
-      <c r="D97" t="s">
+      <c r="D97" s="10" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="98" spans="1:4">
-      <c r="A98" s="1">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A98" s="2">
         <v>97</v>
       </c>
-      <c r="B98" t="s">
+      <c r="B98" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="C98" t="s">
+      <c r="C98" s="11" t="s">
         <v>216</v>
       </c>
-      <c r="D98" t="s">
+      <c r="D98" s="12" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="99" spans="1:4">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A99" s="1">
         <v>98</v>
       </c>
-      <c r="B99" t="s">
+      <c r="B99" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="C99" t="s">
+      <c r="C99" s="9" t="s">
         <v>217</v>
       </c>
-      <c r="D99" t="s">
+      <c r="D99" s="10" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="100" spans="1:4">
-      <c r="A100" s="1">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A100" s="2">
         <v>99</v>
       </c>
-      <c r="B100" t="s">
+      <c r="B100" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="C100" t="s">
+      <c r="C100" s="11" t="s">
         <v>218</v>
       </c>
-      <c r="D100" t="s">
+      <c r="D100" s="12" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="101" spans="1:4">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A101" s="1">
         <v>100</v>
       </c>
-      <c r="B101" t="s">
+      <c r="B101" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="C101" t="s">
+      <c r="C101" s="9" t="s">
         <v>219</v>
       </c>
-      <c r="D101" t="s">
+      <c r="D101" s="10" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="102" spans="1:4">
-      <c r="A102" s="1">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A102" s="2">
         <v>101</v>
       </c>
-      <c r="B102" t="s">
+      <c r="B102" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="C102" t="s">
+      <c r="C102" s="11" t="s">
         <v>220</v>
       </c>
-      <c r="D102" t="s">
+      <c r="D102" s="12" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="103" spans="1:4">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A103" s="1">
         <v>102</v>
       </c>
-      <c r="B103" t="s">
+      <c r="B103" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="C103" t="s">
+      <c r="C103" s="9" t="s">
         <v>221</v>
       </c>
-      <c r="D103" t="s">
+      <c r="D103" s="10" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="104" spans="1:4">
-      <c r="A104" s="1">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A104" s="2">
         <v>103</v>
       </c>
-      <c r="B104" t="s">
+      <c r="B104" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="C104" t="s">
+      <c r="C104" s="11" t="s">
         <v>175</v>
       </c>
-      <c r="D104" t="s">
+      <c r="D104" s="12" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="105" spans="1:4">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A105" s="1">
         <v>104</v>
       </c>
-      <c r="B105" t="s">
+      <c r="B105" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="C105" t="s">
+      <c r="C105" s="9" t="s">
         <v>222</v>
       </c>
-      <c r="D105" t="s">
+      <c r="D105" s="10" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="106" spans="1:4">
-      <c r="A106" s="1">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A106" s="2">
         <v>105</v>
       </c>
-      <c r="B106" t="s">
+      <c r="B106" s="11" t="s">
         <v>105</v>
       </c>
-      <c r="C106" t="s">
+      <c r="C106" s="11" t="s">
         <v>223</v>
       </c>
-      <c r="D106" t="s">
+      <c r="D106" s="12" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="107" spans="1:4">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A107" s="1">
         <v>106</v>
       </c>
-      <c r="B107" t="s">
+      <c r="B107" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="C107" t="s">
+      <c r="C107" s="9" t="s">
         <v>224</v>
       </c>
-      <c r="D107" t="s">
+      <c r="D107" s="10" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="108" spans="1:4">
-      <c r="A108" s="1">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A108" s="2">
         <v>107</v>
       </c>
-      <c r="B108" t="s">
+      <c r="B108" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="C108" t="s">
+      <c r="C108" s="11" t="s">
         <v>225</v>
       </c>
-      <c r="D108" t="s">
+      <c r="D108" s="12" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="109" spans="1:4">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A109" s="1">
         <v>108</v>
       </c>
-      <c r="B109" t="s">
+      <c r="B109" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="C109" t="s">
+      <c r="C109" s="9" t="s">
         <v>226</v>
       </c>
-      <c r="D109" t="s">
+      <c r="D109" s="10" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="110" spans="1:4">
-      <c r="A110" s="1">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A110" s="2">
         <v>109</v>
       </c>
-      <c r="B110" t="s">
+      <c r="B110" s="11" t="s">
         <v>109</v>
       </c>
-      <c r="C110" t="s">
+      <c r="C110" s="11" t="s">
         <v>227</v>
       </c>
-      <c r="D110" t="s">
+      <c r="D110" s="12" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="111" spans="1:4">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A111" s="1">
         <v>110</v>
       </c>
-      <c r="B111" t="s">
+      <c r="B111" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="C111" t="s">
+      <c r="C111" s="9" t="s">
         <v>228</v>
       </c>
-      <c r="D111" t="s">
+      <c r="D111" s="10" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="112" spans="1:4">
-      <c r="A112" s="1">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A112" s="2">
         <v>111</v>
       </c>
-      <c r="B112" t="s">
+      <c r="B112" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="C112" t="s">
+      <c r="C112" s="11" t="s">
         <v>229</v>
       </c>
-      <c r="D112" t="s">
+      <c r="D112" s="12" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="113" spans="1:4">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A113" s="1">
         <v>112</v>
       </c>
-      <c r="B113" t="s">
+      <c r="B113" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="C113" t="s">
+      <c r="C113" s="9" t="s">
         <v>230</v>
       </c>
-      <c r="D113" t="s">
+      <c r="D113" s="10" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="114" spans="1:4">
-      <c r="A114" s="1">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A114" s="2">
         <v>113</v>
       </c>
-      <c r="B114" t="s">
+      <c r="B114" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="C114" t="s">
+      <c r="C114" s="11" t="s">
         <v>231</v>
       </c>
-      <c r="D114" t="s">
+      <c r="D114" s="12" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="115" spans="1:4">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A115" s="1">
         <v>114</v>
       </c>
-      <c r="B115" t="s">
+      <c r="B115" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="C115" t="s">
+      <c r="C115" s="9" t="s">
         <v>232</v>
       </c>
-      <c r="D115" t="s">
+      <c r="D115" s="10" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="116" spans="1:4">
-      <c r="A116" s="1">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A116" s="2">
         <v>115</v>
       </c>
-      <c r="B116" t="s">
+      <c r="B116" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="C116" t="s">
+      <c r="C116" s="11" t="s">
         <v>233</v>
       </c>
-      <c r="D116" t="s">
+      <c r="D116" s="12" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="117" spans="1:4">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A117" s="1">
         <v>116</v>
       </c>
-      <c r="B117" t="s">
+      <c r="B117" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="C117" t="s">
+      <c r="C117" s="9" t="s">
         <v>234</v>
       </c>
-      <c r="D117" t="s">
+      <c r="D117" s="10" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="118" spans="1:4">
-      <c r="A118" s="1">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A118" s="2">
         <v>117</v>
       </c>
-      <c r="B118" t="s">
+      <c r="B118" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="C118" t="s">
+      <c r="C118" s="11" t="s">
         <v>235</v>
       </c>
-      <c r="D118" t="s">
+      <c r="D118" s="12" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="119" spans="1:4">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A119" s="1">
         <v>118</v>
       </c>
-      <c r="B119" t="s">
+      <c r="B119" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="C119" t="s">
+      <c r="C119" s="9" t="s">
         <v>236</v>
       </c>
-      <c r="D119" t="s">
+      <c r="D119" s="10" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="120" spans="1:4">
-      <c r="A120" s="1">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A120" s="2">
         <v>119</v>
       </c>
-      <c r="B120" t="s">
+      <c r="B120" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="C120" t="s">
+      <c r="C120" s="13" t="s">
         <v>237</v>
       </c>
-      <c r="D120" t="s">
+      <c r="D120" s="14" t="s">
         <v>357</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>